--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/63.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/63.xlsx
@@ -479,13 +479,13 @@
         <v>-16.80237162026229</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.992594936009901</v>
+        <v>-8.950490090070909</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.686487704396036</v>
+        <v>-1.734523363522328</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.570639924370033</v>
+        <v>-7.517917220826402</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-16.1771135484175</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.664295533304657</v>
+        <v>-9.626668254937536</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.709517065094632</v>
+        <v>-1.755981647879918</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.477723851102303</v>
+        <v>-7.423613363457449</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.48331612929639</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.18615472457586</v>
+        <v>-10.14954864583039</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.703651713421539</v>
+        <v>-1.754279648510493</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.285921614471016</v>
+        <v>-7.242821753516054</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.78485892107469</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.84235403530601</v>
+        <v>-10.80923050911644</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.710053849511143</v>
+        <v>-1.749762804030098</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.87825348858535</v>
+        <v>-6.834341904854201</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.08918169128788</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.43301327801048</v>
+        <v>-11.39727129125257</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.764151244853155</v>
+        <v>-1.810668196849807</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.635378178568489</v>
+        <v>-6.585077551050578</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.42036731512931</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.23788877981127</v>
+        <v>-12.19595413380923</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.542184342474531</v>
+        <v>-1.590926985954277</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.263006901144117</v>
+        <v>-6.227906437225449</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.776870846648</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.87494714378682</v>
+        <v>-12.82399190112683</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.450721514822233</v>
+        <v>-1.494515267827806</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.570306250091232</v>
+        <v>-5.531801787433715</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.18312238738519</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.48465568712601</v>
+        <v>-13.42898721544299</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.332589666281338</v>
+        <v>-1.379145895186516</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.204180001122363</v>
+        <v>-5.166408707423983</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.64279356423176</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.11083434744008</v>
+        <v>-14.05063593897382</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.259744093269974</v>
+        <v>-1.300723001164577</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.78660100198551</v>
+        <v>-4.754511767720439</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.15889981065201</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.95532715763994</v>
+        <v>-14.89560007207598</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.160124760947281</v>
+        <v>-1.199440946380984</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.220974242314418</v>
+        <v>-4.179929872905607</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.73128809937892</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.74043328214973</v>
+        <v>-15.67468373727858</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9147095441791255</v>
+        <v>-0.9611217577530444</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.714092645494152</v>
+        <v>-3.675732198167895</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.35065421138408</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.5033217687371</v>
+        <v>-16.43867197730466</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8277635610072227</v>
+        <v>-0.8765323890926523</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.254762292595034</v>
+        <v>-3.216048353092051</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.03187073463466</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.24572080137718</v>
+        <v>-17.18409533190118</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6364064626725545</v>
+        <v>-0.6806453539747469</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.663291327114376</v>
+        <v>-2.613304914864666</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.778856824874316</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.99850203017074</v>
+        <v>-17.93180983949499</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4598960357604037</v>
+        <v>-0.5085470331202577</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.383534999992373</v>
+        <v>-2.340029277649317</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.593674981237752</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.86387706340316</v>
+        <v>-18.79934510269629</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3008376485362736</v>
+        <v>-0.3472105852016674</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.805588383347217</v>
+        <v>-1.761493507376284</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.476309237213</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.70306749095211</v>
+        <v>-19.63235596330395</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.06276721366232685</v>
+        <v>-0.1058932592229725</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.540626358436366</v>
+        <v>-1.495785221203454</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.414379585457944</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.42788356087575</v>
+        <v>-20.35791829448957</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0309736746844318</v>
+        <v>-0.01025398696416359</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.096208138473974</v>
+        <v>-1.049900663322789</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.412542000398622</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.12982737773489</v>
+        <v>-21.05924677311515</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3159276460345997</v>
+        <v>0.2734038464046734</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.7080606361253213</v>
+        <v>-0.6712712651400711</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.466374462393274</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.78305473571998</v>
+        <v>-21.71574720681066</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4684791587463918</v>
+        <v>0.4303412805684438</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.4786311211269137</v>
+        <v>-0.4465811637703683</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-9.568773395962788</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.40254322928193</v>
+        <v>-22.33666276138236</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6543767667960603</v>
+        <v>0.6223791786508818</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1233191143053099</v>
+        <v>-0.09336392540344067</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.712443517404166</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.85255186255774</v>
+        <v>-22.78147375043001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8164071067652621</v>
+        <v>0.7815946735091125</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0164335539054583</v>
+        <v>0.002576469820727956</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.881534415540623</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.29806983595883</v>
+        <v>-23.2298458458506</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8919496941620215</v>
+        <v>0.8625705665851882</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1435151099119091</v>
+        <v>0.159815026949858</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.07660738965358</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.80221514148518</v>
+        <v>-23.72536332380425</v>
       </c>
       <c r="F24" t="n">
-        <v>1.03347748788108</v>
+        <v>1.006468067118599</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0558359577808696</v>
+        <v>0.07755608819529315</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.29440280529243</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.06070956879222</v>
+        <v>-23.98785090347801</v>
       </c>
       <c r="F25" t="n">
-        <v>1.090952697356258</v>
+        <v>1.067674582903669</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2694630632493139</v>
+        <v>0.292348408616651</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.52936463896686</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.31845773483728</v>
+        <v>-24.24483971595825</v>
       </c>
       <c r="F26" t="n">
-        <v>1.229181230759202</v>
+        <v>1.208443023057908</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1636117947739586</v>
+        <v>0.1832633413393894</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.77520637073371</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.3757889289812</v>
+        <v>-24.29500942044775</v>
       </c>
       <c r="F27" t="n">
-        <v>1.198885641983447</v>
+        <v>1.180294571948197</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.04020917586603284</v>
+        <v>-0.01515050822696914</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.01686225985648</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.45216942375983</v>
+        <v>-24.37364179131515</v>
       </c>
       <c r="F28" t="n">
-        <v>1.124743930990753</v>
+        <v>1.106925306823163</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.4031932721528881</v>
+        <v>-0.3936358910784281</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-11.25152014226845</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.25408288176451</v>
+        <v>-24.17461260351523</v>
       </c>
       <c r="F29" t="n">
-        <v>1.15210684392996</v>
+        <v>1.131460282348558</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.4698330936172738</v>
+        <v>-0.4620038965179216</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.47410435995638</v>
       </c>
       <c r="E30" t="n">
-        <v>-23.99894008398496</v>
+        <v>-23.92127654352783</v>
       </c>
       <c r="F30" t="n">
-        <v>1.038400193749569</v>
+        <v>1.018486801127304</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.7873999913461813</v>
+        <v>-0.7902541133656775</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.67630376025354</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.76614584715622</v>
+        <v>-23.68870487584741</v>
       </c>
       <c r="F31" t="n">
-        <v>0.973986063768277</v>
+        <v>0.9583276695695727</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.027696117703222</v>
+        <v>-1.029489763192538</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.84944546405902</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.42387377396498</v>
+        <v>-23.34728380234088</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9443712747402927</v>
+        <v>0.9243007744839266</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.273399365133895</v>
+        <v>-1.28367682286465</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-11.97788983913368</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.08335606935453</v>
+        <v>-23.00448803703597</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9135389015480277</v>
+        <v>0.8887028030572734</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.565148241658918</v>
+        <v>-1.578973713459781</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-12.05881021887071</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.6160525040248</v>
+        <v>-22.54180605460937</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8370012991352972</v>
+        <v>0.8119819084047587</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.823616484360274</v>
+        <v>-1.837180110104303</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-12.0914251417534</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.27139763171636</v>
+        <v>-22.19381264507629</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7597043431577465</v>
+        <v>0.7332317068117764</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.140293105495945</v>
+        <v>-2.160232682723893</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-12.07475378089022</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.68653827917077</v>
+        <v>-21.60905803095343</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8098609553443991</v>
+        <v>0.7830086422160188</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.46702461521406</v>
+        <v>-2.478794595468772</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-12.01108176383059</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.2293550639377</v>
+        <v>-21.15725575218831</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8320000394497579</v>
+        <v>0.8019270198223131</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.645944025849089</v>
+        <v>-2.648025702000923</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.89866463481026</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.75197042541984</v>
+        <v>-20.66571833429855</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9260551430647179</v>
+        <v>0.8983780148573089</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.773829640007069</v>
+        <v>-2.775780393130486</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.74833802654016</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.24626713585533</v>
+        <v>-20.15489595432292</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9486524577695371</v>
+        <v>0.921080067984862</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.854098548729691</v>
+        <v>-2.860435223305087</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-11.57259480484054</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.58201605887751</v>
+        <v>-19.49253016895431</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9623862834505077</v>
+        <v>0.9312658795957249</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.986645022699326</v>
+        <v>-2.999894433175153</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-11.38042254494507</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.04673725719354</v>
+        <v>-18.95956870487333</v>
       </c>
       <c r="F41" t="n">
-        <v>1.034524872108418</v>
+        <v>0.9988614391675565</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.149159777873672</v>
+        <v>-3.158717158948132</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-11.18064370680603</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.29516052026142</v>
+        <v>-18.20893461374581</v>
       </c>
       <c r="F42" t="n">
-        <v>1.006180036456081</v>
+        <v>0.9717603722851836</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.365706466875821</v>
+        <v>-3.378471462146504</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.97515185303551</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.76095528741047</v>
+        <v>-17.66700492221824</v>
       </c>
       <c r="F43" t="n">
-        <v>1.124770115596436</v>
+        <v>1.092458312183056</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.394378610099201</v>
+        <v>-3.407772035906287</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.77440622197585</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.21607982774351</v>
+        <v>-17.12244367781949</v>
       </c>
       <c r="F44" t="n">
-        <v>1.051780527253813</v>
+        <v>1.015750509833383</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.532148912902684</v>
+        <v>-3.536678849685922</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.58914837811817</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.54635616817786</v>
+        <v>-16.45357101793854</v>
       </c>
       <c r="F45" t="n">
-        <v>1.083922130730251</v>
+        <v>1.051060450597519</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.720573335400806</v>
+        <v>-3.724514118556166</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.42385692396088</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.07013674461291</v>
+        <v>-15.97516517979903</v>
       </c>
       <c r="F46" t="n">
-        <v>0.885141696684324</v>
+        <v>0.8505256479708002</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.890956564583029</v>
+        <v>-3.889608057390332</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.28079078858744</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.48855046777776</v>
+        <v>-15.38576279816737</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9700321883100758</v>
+        <v>0.9371574158745016</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.840773767790693</v>
+        <v>-3.833049309114075</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.1544543663454</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.8107619496616</v>
+        <v>-14.70826231071373</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9634467599806875</v>
+        <v>0.9301792184598616</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.976200548385508</v>
+        <v>-3.973189318731911</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.04552186284669</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.31699884028874</v>
+        <v>-14.21669870821828</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8689596103719506</v>
+        <v>0.8364776070216281</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.092604212951295</v>
+        <v>-4.078097941402661</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.955971670027269</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.80226186176344</v>
+        <v>-13.69957893057578</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8572419993286057</v>
+        <v>0.8251527650635351</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.147984653971795</v>
+        <v>-4.130794460340609</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.881442302645262</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.33253622040799</v>
+        <v>-13.22606961369908</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9752952940524496</v>
+        <v>0.937995323256372</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.23032214654341</v>
+        <v>-4.214336444773663</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.817167898375418</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.67035372727917</v>
+        <v>-12.55998561432342</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8553567077193971</v>
+        <v>0.8247992728868085</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.329627263597903</v>
+        <v>-4.31360228491963</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.75353348679643</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.28512580846422</v>
+        <v>-12.17487552623405</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8684751951668067</v>
+        <v>0.8385723754763044</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.512762395747967</v>
+        <v>-4.493791648930306</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.687563855090566</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.6335480806372</v>
+        <v>-11.52150415291771</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8529608162993613</v>
+        <v>0.8252444111834272</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.712145075724614</v>
+        <v>-4.693527821083679</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.621135518519738</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.25889874251837</v>
+        <v>-11.15363662767089</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8206359205831396</v>
+        <v>0.7958914682122773</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.928809595452338</v>
+        <v>-4.911056432798958</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.55183674089427</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.87609289972914</v>
+        <v>-10.76105083465889</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7398825966553733</v>
+        <v>0.7130957450412017</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.118346863692007</v>
+        <v>-5.100122378136324</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.478116256671528</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.31524483059528</v>
+        <v>-10.2036460411724</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7245776946333954</v>
+        <v>0.6974373508424973</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.20165318667391</v>
+        <v>-5.182158747742579</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.395387095518378</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.09113079055061</v>
+        <v>-9.976010171663313</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6304833141099102</v>
+        <v>0.6022301245774654</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.334788814271421</v>
+        <v>-5.308813685433437</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.30440629578778</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.587064038841316</v>
+        <v>-9.468343036672543</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6616299025703765</v>
+        <v>0.6331934207981474</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.545967659108463</v>
+        <v>-5.519246269008501</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.212536343489091</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.470581820458477</v>
+        <v>-9.348797219424743</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6383648804206293</v>
+        <v>0.6115780288064577</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.602330022842094</v>
+        <v>-5.573343664350513</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.122359258161998</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.100645711362667</v>
+        <v>-8.979568094682383</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6651648243376426</v>
+        <v>0.6403156335440464</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.608417943663497</v>
+        <v>-5.585755167444469</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.036343783784657</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.830760980583324</v>
+        <v>-8.706619765038079</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6240811780203062</v>
+        <v>0.5963516806015303</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.67086822821853</v>
+        <v>-5.648362559633603</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.953332144605966</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.480384771933052</v>
+        <v>-8.359490447492554</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5828142394631856</v>
+        <v>0.5518771278481869</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.665330184116479</v>
+        <v>-5.632376857863855</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.874198592298821</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.1639961814599</v>
+        <v>-8.036712813232638</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4756013714922908</v>
+        <v>0.4406318306020405</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.585545690599001</v>
+        <v>-5.550851088068427</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.807147706458514</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.06562061790717</v>
+        <v>-7.953419582553578</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3312194557537357</v>
+        <v>0.3014999283030175</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.600955331043712</v>
+        <v>-5.571968972552131</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.754378828764704</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.861485431998977</v>
+        <v>-7.744099844720061</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2888920406664354</v>
+        <v>0.2585309903764726</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.577218985991664</v>
+        <v>-5.5504975958917</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.717755168884345</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.737003816579846</v>
+        <v>-7.614184923621614</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1887490162300726</v>
+        <v>0.1503492919952901</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.527127835319219</v>
+        <v>-5.502723782822242</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.695730903002108</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.582017135539493</v>
+        <v>-7.45570259772252</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1356466359040317</v>
+        <v>0.09893581873583182</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.470150133352027</v>
+        <v>-5.44278722041282</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.687109601180532</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.502062442085071</v>
+        <v>-7.380133825720077</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1341279287743915</v>
+        <v>0.09454989728385359</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.376029568222859</v>
+        <v>-5.342827488216241</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.699675135238305</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.507836147638272</v>
+        <v>-7.38402223966407</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02538326137101477</v>
+        <v>-0.01669539996229282</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.286530585996819</v>
+        <v>-5.256981258483044</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.734548974005305</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.595161807592586</v>
+        <v>-7.47435912927198</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02991319815425198</v>
+        <v>-0.0146268161133001</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.122182908424632</v>
+        <v>-5.094047549617763</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.791970450680621</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.588105056360895</v>
+        <v>-7.464827932803202</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.0404448373171839</v>
+        <v>-0.08023234565318943</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.050973873268484</v>
+        <v>-5.031256865188845</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.868056539264135</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.816565740949015</v>
+        <v>-7.694218170893085</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.07030838009916107</v>
+        <v>-0.1107112266687277</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.781874680659646</v>
+        <v>-4.763414533652813</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.956709073933705</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.939188249364622</v>
+        <v>-7.815911125806929</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1441227835208126</v>
+        <v>-0.1852326144438325</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.646971592178501</v>
+        <v>-4.617369895453359</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.062206567028042</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.298637423884211</v>
+        <v>-8.179510560327346</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2109720818306659</v>
+        <v>-0.2528674509241894</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.411990940775201</v>
+        <v>-4.384130520328008</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.182052664795926</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.553151791127366</v>
+        <v>-8.433514327759672</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.210540035836889</v>
+        <v>-0.2506941286524628</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.144017686210752</v>
+        <v>-4.108144776424423</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.313660318866319</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.077393781515761</v>
+        <v>-8.965729530578679</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2728201204549799</v>
+        <v>-0.3111151062670287</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.909063219413136</v>
+        <v>-3.8808754913949</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.451764734354512</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.531683597820814</v>
+        <v>-9.413211349406035</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.2108411588022487</v>
+        <v>-0.2510083439206642</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.829514387346809</v>
+        <v>-3.805725673083392</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.588067939685212</v>
       </c>
       <c r="E79" t="n">
-        <v>-9.982818169141011</v>
+        <v>-9.863796044006879</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2814872249362025</v>
+        <v>-0.3180671190759852</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.690434854259153</v>
+        <v>-3.672943537662607</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.727503173476551</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.57335958111991</v>
+        <v>-10.45797711617577</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3312248834319199</v>
+        <v>-0.3636676098737171</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.361111068578375</v>
+        <v>-3.344693320814851</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.868218504270345</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.24600282421927</v>
+        <v>-11.12557982268107</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.34374112494861</v>
+        <v>-0.3807923419906948</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.194472238008886</v>
+        <v>-3.176273937058887</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.00901398428282</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.10174192256017</v>
+        <v>-11.98811382619682</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4026957646449025</v>
+        <v>-0.4341565683735703</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.859060531506706</v>
+        <v>-2.840312353837354</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.14720209680682</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.0212798126488</v>
+        <v>-12.91045346909359</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3740498060272058</v>
+        <v>-0.4077624858446505</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.727823287821244</v>
+        <v>-2.716747199617144</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.27594383162475</v>
       </c>
       <c r="E84" t="n">
-        <v>-13.95490502059512</v>
+        <v>-13.84630436852301</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4336197839570595</v>
+        <v>-0.4637451727958711</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.443746500761471</v>
+        <v>-2.4334952276364</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.40417002410786</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.18470430342698</v>
+        <v>-15.07046086883008</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.471351800746914</v>
+        <v>-0.5028649736869486</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.240881268228926</v>
+        <v>-2.227173627153639</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.53367378878629</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.25427998408179</v>
+        <v>-16.14408207106298</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5669910730057229</v>
+        <v>-0.5988577381224842</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.98878897701149</v>
+        <v>-1.984533978587929</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.66658118645421</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.41245127806656</v>
+        <v>-17.30042044264991</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5008749436550063</v>
+        <v>-0.5324404858064078</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.930999552268112</v>
+        <v>-1.913285666523256</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.80363617992685</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.79810133392632</v>
+        <v>-18.69535294122446</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6542905483543523</v>
+        <v>-0.6856335213574446</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.901908455353796</v>
+        <v>-1.883382846832754</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.93851300059786</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.32404850703802</v>
+        <v>-20.22300211370558</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6404519842506479</v>
+        <v>-0.6703809885468337</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.889719521408149</v>
+        <v>-1.866637791498186</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-11.08360359961277</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.95538871802561</v>
+        <v>-21.85307237131753</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6637300987032368</v>
+        <v>-0.6929652109488111</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.902078655290739</v>
+        <v>-1.881576109040596</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-11.24202379224587</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.67006143660079</v>
+        <v>-23.5676796283785</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8178919646645613</v>
+        <v>-0.8411438945114668</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.949878652965881</v>
+        <v>-1.929768875800989</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-11.41700690959625</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.40106025681961</v>
+        <v>-25.2890425137058</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8622879636008544</v>
+        <v>-0.8889438921866086</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.004447371210195</v>
+        <v>-1.990713545529224</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-11.60859510452239</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.40889582062672</v>
+        <v>-27.29736249271805</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.037646267862933</v>
+        <v>-1.061880120422968</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.203843143489683</v>
+        <v>-2.187844349417094</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-11.80769565620992</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.46866854980695</v>
+        <v>-29.34298244252638</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.062024135754227</v>
+        <v>-1.084202496768111</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.271687456815507</v>
+        <v>-2.248605726905544</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-12.02537709814393</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.66670908929866</v>
+        <v>-31.5450423189905</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.280547762485477</v>
+        <v>-1.303655677001124</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.483664932125894</v>
+        <v>-2.462023355528521</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.26381467371938</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.93030278911889</v>
+        <v>-33.80126505231084</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.416393496771227</v>
+        <v>-1.439867995766442</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.706090065103978</v>
+        <v>-2.686674179989699</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.51958724484606</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.14789013675329</v>
+        <v>-36.02103881451981</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.606533010941614</v>
+        <v>-1.622702004951146</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.773921286126961</v>
+        <v>-2.752868863157465</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.79421999407285</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.48887243867096</v>
+        <v>-38.35400862709835</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.881641570554804</v>
+        <v>-1.895349211630092</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.046110262206446</v>
+        <v>-3.022517932485655</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-13.06588179544682</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.80349993496824</v>
+        <v>-40.6688194156354</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.902497608981674</v>
+        <v>-1.921232694348184</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.323811097782297</v>
+        <v>-3.295950677335104</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-13.35243108173369</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.12869291965879</v>
+        <v>-42.99081787843257</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.246969189050329</v>
+        <v>-2.262732321671767</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.3408179991737</v>
+        <v>-3.31434536282773</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-13.63028981460901</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.4836185241029</v>
+        <v>-45.35183140369809</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.279987976817162</v>
+        <v>-2.297741139470542</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.61562543582153</v>
+        <v>-3.583824232218977</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.92533040470503</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.03427405603081</v>
+        <v>-47.89159413966168</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.560739318955136</v>
+        <v>-2.575297959715135</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.621189664529263</v>
+        <v>-3.589637214680704</v>
       </c>
     </row>
   </sheetData>
